--- a/posesiones/1381267.xlsx
+++ b/posesiones/1381267.xlsx
@@ -1853,10 +1853,10 @@
         <v>1</v>
       </c>
       <c r="P3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -1897,7 +1897,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -1947,7 +1947,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:18">
@@ -1997,7 +1997,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:18">
@@ -2047,7 +2047,7 @@
         <v>1</v>
       </c>
       <c r="Q7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R7">
         <v>86</v>
@@ -2097,7 +2097,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:18">
@@ -2147,7 +2147,7 @@
         <v>1</v>
       </c>
       <c r="Q9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R9">
         <v>10</v>
@@ -2200,7 +2200,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:18">
@@ -2250,7 +2250,7 @@
         <v>1</v>
       </c>
       <c r="Q11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R11">
         <v>9</v>
@@ -2303,7 +2303,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:18">
@@ -2350,7 +2350,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:18">
@@ -2397,7 +2397,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:18">
@@ -2444,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:18">
@@ -2497,7 +2497,7 @@
         <v>1</v>
       </c>
       <c r="Q16">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R16">
         <v>15</v>
@@ -2547,7 +2547,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:18">
@@ -2594,7 +2594,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:18">
@@ -2641,7 +2641,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:18">
@@ -2691,7 +2691,7 @@
         <v>1</v>
       </c>
       <c r="Q20">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="R20">
         <v>15</v>
@@ -2744,7 +2744,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:18">
@@ -2791,7 +2791,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:18">
@@ -2838,7 +2838,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24" spans="1:18">
@@ -2885,7 +2885,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25" spans="1:18">
@@ -2932,7 +2932,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="26" spans="1:18">
@@ -2979,7 +2979,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="27" spans="1:18">
@@ -3029,7 +3029,7 @@
         <v>1</v>
       </c>
       <c r="Q27">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="R27">
         <v>5</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="29" spans="1:18">
@@ -3126,7 +3126,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="30" spans="1:18">
@@ -3176,7 +3176,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="31" spans="1:18">
@@ -3226,7 +3226,7 @@
         <v>1</v>
       </c>
       <c r="Q31">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="R31">
         <v>27</v>
@@ -3279,7 +3279,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="33" spans="1:18">
@@ -3329,7 +3329,7 @@
         <v>1</v>
       </c>
       <c r="Q33">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="R33">
         <v>13</v>
@@ -3382,7 +3382,7 @@
         <v>1</v>
       </c>
       <c r="Q34">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="R34">
         <v>7</v>
@@ -3435,7 +3435,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="36" spans="1:18">
@@ -3485,7 +3485,7 @@
         <v>1</v>
       </c>
       <c r="Q36">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="R36">
         <v>7</v>
@@ -3538,7 +3538,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="38" spans="1:18">
@@ -3585,7 +3585,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="39" spans="1:18">
@@ -3635,7 +3635,7 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="40" spans="1:18">
@@ -3685,7 +3685,7 @@
         <v>1</v>
       </c>
       <c r="Q40">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="R40">
         <v>25</v>
@@ -3735,7 +3735,7 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="42" spans="1:18">
@@ -3785,7 +3785,7 @@
         <v>1</v>
       </c>
       <c r="Q42">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="R42">
         <v>18</v>
@@ -3838,7 +3838,7 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="44" spans="1:18">
@@ -3885,7 +3885,7 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="45" spans="1:18">
@@ -3935,7 +3935,7 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="46" spans="1:18">
@@ -3985,7 +3985,7 @@
         <v>1</v>
       </c>
       <c r="Q46">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="R46">
         <v>23</v>
@@ -4038,7 +4038,7 @@
         <v>1</v>
       </c>
       <c r="Q47">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="R47">
         <v>15</v>
@@ -4091,7 +4091,7 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="49" spans="1:18">
@@ -4138,7 +4138,7 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="50" spans="1:18">
@@ -4185,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="51" spans="1:18">
@@ -4235,7 +4235,7 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="52" spans="1:18">
@@ -4282,7 +4282,7 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="53" spans="1:18">
@@ -4329,7 +4329,7 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="54" spans="1:18">
@@ -4376,7 +4376,7 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="55" spans="1:18">
@@ -4426,7 +4426,7 @@
         <v>1</v>
       </c>
       <c r="Q55">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="R55">
         <v>25</v>
@@ -4473,7 +4473,7 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="57" spans="1:18">
@@ -4523,7 +4523,7 @@
         <v>1</v>
       </c>
       <c r="Q57">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="R57">
         <v>17</v>
@@ -4576,7 +4576,7 @@
         <v>1</v>
       </c>
       <c r="Q58">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="R58">
         <v>14</v>
@@ -4629,7 +4629,7 @@
         <v>0</v>
       </c>
       <c r="Q59">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="60" spans="1:18">
@@ -4676,7 +4676,7 @@
         <v>0</v>
       </c>
       <c r="Q60">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="61" spans="1:18">
@@ -4723,7 +4723,7 @@
         <v>0</v>
       </c>
       <c r="Q61">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="62" spans="1:18">
@@ -4770,7 +4770,7 @@
         <v>0</v>
       </c>
       <c r="Q62">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="63" spans="1:18">
@@ -4817,7 +4817,7 @@
         <v>0</v>
       </c>
       <c r="Q63">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="64" spans="1:18">
@@ -4864,7 +4864,7 @@
         <v>0</v>
       </c>
       <c r="Q64">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="65" spans="1:18">
@@ -4911,7 +4911,7 @@
         <v>0</v>
       </c>
       <c r="Q65">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="66" spans="1:18">
@@ -4958,7 +4958,7 @@
         <v>0</v>
       </c>
       <c r="Q66">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="67" spans="1:18">
@@ -5008,7 +5008,7 @@
         <v>0</v>
       </c>
       <c r="Q67">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="68" spans="1:18">
@@ -5058,7 +5058,7 @@
         <v>1</v>
       </c>
       <c r="Q68">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="R68">
         <v>31</v>
@@ -5111,7 +5111,7 @@
         <v>0</v>
       </c>
       <c r="Q69">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="70" spans="1:18">
@@ -5158,7 +5158,7 @@
         <v>0</v>
       </c>
       <c r="Q70">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="71" spans="1:18">
@@ -5208,7 +5208,7 @@
         <v>0</v>
       </c>
       <c r="Q71">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="72" spans="1:18">
@@ -5258,7 +5258,7 @@
         <v>1</v>
       </c>
       <c r="Q72">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="R72">
         <v>13</v>
@@ -5308,7 +5308,7 @@
         <v>0</v>
       </c>
       <c r="Q73">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="74" spans="1:18">
@@ -5358,7 +5358,7 @@
         <v>0</v>
       </c>
       <c r="Q74">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="75" spans="1:18">
@@ -5405,7 +5405,7 @@
         <v>0</v>
       </c>
       <c r="Q75">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="76" spans="1:18">
@@ -5455,7 +5455,7 @@
         <v>0</v>
       </c>
       <c r="Q76">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="77" spans="1:18">
@@ -5502,7 +5502,7 @@
         <v>0</v>
       </c>
       <c r="Q77">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="78" spans="1:18">
@@ -5549,7 +5549,7 @@
         <v>0</v>
       </c>
       <c r="Q78">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="79" spans="1:18">
@@ -5596,7 +5596,7 @@
         <v>0</v>
       </c>
       <c r="Q79">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="80" spans="1:18">
@@ -5643,7 +5643,7 @@
         <v>0</v>
       </c>
       <c r="Q80">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="81" spans="1:18">
@@ -5690,7 +5690,7 @@
         <v>0</v>
       </c>
       <c r="Q81">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="82" spans="1:18">
@@ -5737,7 +5737,7 @@
         <v>0</v>
       </c>
       <c r="Q82">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="83" spans="1:18">
@@ -5784,7 +5784,7 @@
         <v>0</v>
       </c>
       <c r="Q83">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="84" spans="1:18">
@@ -5834,7 +5834,7 @@
         <v>1</v>
       </c>
       <c r="Q84">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="R84">
         <v>20</v>
@@ -5884,7 +5884,7 @@
         <v>0</v>
       </c>
       <c r="Q85">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="86" spans="1:18">
@@ -5934,7 +5934,7 @@
         <v>0</v>
       </c>
       <c r="Q86">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="87" spans="1:18">
@@ -5984,7 +5984,7 @@
         <v>1</v>
       </c>
       <c r="Q87">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R87">
         <v>19</v>
@@ -6037,7 +6037,7 @@
         <v>0</v>
       </c>
       <c r="Q88">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="89" spans="1:18">
@@ -6087,7 +6087,7 @@
         <v>1</v>
       </c>
       <c r="Q89">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R89">
         <v>11</v>
@@ -6140,7 +6140,7 @@
         <v>0</v>
       </c>
       <c r="Q90">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="91" spans="1:18">
@@ -6190,7 +6190,7 @@
         <v>1</v>
       </c>
       <c r="Q91">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="R91">
         <v>5</v>
@@ -6240,7 +6240,7 @@
         <v>0</v>
       </c>
       <c r="Q92">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="93" spans="1:18">
@@ -6290,7 +6290,7 @@
         <v>1</v>
       </c>
       <c r="Q93">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="R93">
         <v>20</v>
@@ -6343,7 +6343,7 @@
         <v>0</v>
       </c>
       <c r="Q94">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="95" spans="1:18">
@@ -6393,7 +6393,7 @@
         <v>1</v>
       </c>
       <c r="Q95">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="R95">
         <v>13</v>
@@ -6446,7 +6446,7 @@
         <v>0</v>
       </c>
       <c r="Q96">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="97" spans="1:18">
@@ -6493,7 +6493,7 @@
         <v>0</v>
       </c>
       <c r="Q97">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="98" spans="1:18">
@@ -6543,7 +6543,7 @@
         <v>0</v>
       </c>
       <c r="Q98">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="99" spans="1:18">
@@ -6590,7 +6590,7 @@
         <v>0</v>
       </c>
       <c r="Q99">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="100" spans="1:18">
@@ -6637,7 +6637,7 @@
         <v>0</v>
       </c>
       <c r="Q100">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="101" spans="1:18">
@@ -6684,7 +6684,7 @@
         <v>0</v>
       </c>
       <c r="Q101">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="102" spans="1:18">
@@ -6731,7 +6731,7 @@
         <v>0</v>
       </c>
       <c r="Q102">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="103" spans="1:18">
@@ -6778,7 +6778,7 @@
         <v>0</v>
       </c>
       <c r="Q103">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="104" spans="1:18">
@@ -6828,7 +6828,7 @@
         <v>1</v>
       </c>
       <c r="Q104">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="R104">
         <v>15</v>
@@ -6881,7 +6881,7 @@
         <v>1</v>
       </c>
       <c r="Q105">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="R105">
         <v>17</v>
@@ -6934,7 +6934,7 @@
         <v>0</v>
       </c>
       <c r="Q106">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="107" spans="1:18">
@@ -6984,7 +6984,7 @@
         <v>1</v>
       </c>
       <c r="Q107">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="R107">
         <v>23</v>
@@ -7037,7 +7037,7 @@
         <v>0</v>
       </c>
       <c r="Q108">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="109" spans="1:18">
@@ -7087,7 +7087,7 @@
         <v>1</v>
       </c>
       <c r="Q109">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="R109">
         <v>12</v>
@@ -7137,7 +7137,7 @@
         <v>0</v>
       </c>
       <c r="Q110">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="111" spans="1:18">
@@ -7187,7 +7187,7 @@
         <v>1</v>
       </c>
       <c r="Q111">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R111">
         <v>17</v>
@@ -7240,7 +7240,7 @@
         <v>0</v>
       </c>
       <c r="Q112">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="113" spans="1:18">
@@ -7290,7 +7290,7 @@
         <v>1</v>
       </c>
       <c r="Q113">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R113">
         <v>12</v>
@@ -7340,7 +7340,7 @@
         <v>0</v>
       </c>
       <c r="Q114">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="115" spans="1:18">
@@ -7390,7 +7390,7 @@
         <v>1</v>
       </c>
       <c r="Q115">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R115">
         <v>11</v>
@@ -7443,7 +7443,7 @@
         <v>0</v>
       </c>
       <c r="Q116">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="117" spans="1:18">
@@ -7490,7 +7490,7 @@
         <v>0</v>
       </c>
       <c r="Q117">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="118" spans="1:18">
@@ -7537,7 +7537,7 @@
         <v>0</v>
       </c>
       <c r="Q118">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="119" spans="1:18">
@@ -7584,7 +7584,7 @@
         <v>0</v>
       </c>
       <c r="Q119">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="120" spans="1:18">
@@ -7631,7 +7631,7 @@
         <v>0</v>
       </c>
       <c r="Q120">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="121" spans="1:18">
@@ -7678,7 +7678,7 @@
         <v>0</v>
       </c>
       <c r="Q121">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="122" spans="1:18">
@@ -7728,7 +7728,7 @@
         <v>1</v>
       </c>
       <c r="Q122">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R122">
         <v>23</v>
@@ -7781,7 +7781,7 @@
         <v>0</v>
       </c>
       <c r="Q123">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="124" spans="1:18">
@@ -7831,7 +7831,7 @@
         <v>1</v>
       </c>
       <c r="Q124">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="R124">
         <v>5</v>
@@ -7875,10 +7875,10 @@
         <v>1</v>
       </c>
       <c r="P125" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q125">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="126" spans="1:18">
@@ -7919,10 +7919,10 @@
         <v>1</v>
       </c>
       <c r="P126" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q126">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="127" spans="1:18">
@@ -7972,7 +7972,7 @@
         <v>1</v>
       </c>
       <c r="Q127">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="R127">
         <v>14</v>
@@ -8022,7 +8022,7 @@
         <v>0</v>
       </c>
       <c r="Q128">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="129" spans="1:18">
@@ -8072,7 +8072,7 @@
         <v>1</v>
       </c>
       <c r="Q129">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="R129">
         <v>17</v>
@@ -8125,7 +8125,7 @@
         <v>0</v>
       </c>
       <c r="Q130">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="131" spans="1:18">
@@ -8175,7 +8175,7 @@
         <v>1</v>
       </c>
       <c r="Q131">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="R131">
         <v>8</v>
@@ -8225,7 +8225,7 @@
         <v>0</v>
       </c>
       <c r="Q132">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="133" spans="1:18">
@@ -8275,7 +8275,7 @@
         <v>1</v>
       </c>
       <c r="Q133">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="R133">
         <v>19</v>
@@ -8325,7 +8325,7 @@
         <v>0</v>
       </c>
       <c r="Q134">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="135" spans="1:18">
@@ -8372,7 +8372,7 @@
         <v>0</v>
       </c>
       <c r="Q135">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="136" spans="1:18">
@@ -8422,7 +8422,7 @@
         <v>0</v>
       </c>
       <c r="Q136">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="137" spans="1:18">
@@ -8472,7 +8472,7 @@
         <v>1</v>
       </c>
       <c r="Q137">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="R137">
         <v>22</v>
@@ -8525,7 +8525,7 @@
         <v>0</v>
       </c>
       <c r="Q138">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="139" spans="1:18">
@@ -8572,7 +8572,7 @@
         <v>0</v>
       </c>
       <c r="Q139">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="140" spans="1:18">
@@ -8619,7 +8619,7 @@
         <v>0</v>
       </c>
       <c r="Q140">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="141" spans="1:18">
@@ -8666,7 +8666,7 @@
         <v>0</v>
       </c>
       <c r="Q141">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="142" spans="1:18">
@@ -8713,7 +8713,7 @@
         <v>0</v>
       </c>
       <c r="Q142">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="143" spans="1:18">
@@ -8760,7 +8760,7 @@
         <v>0</v>
       </c>
       <c r="Q143">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="144" spans="1:18">
@@ -8807,7 +8807,7 @@
         <v>0</v>
       </c>
       <c r="Q144">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="145" spans="1:18">
@@ -8857,7 +8857,7 @@
         <v>1</v>
       </c>
       <c r="Q145">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="R145">
         <v>19</v>
@@ -8910,7 +8910,7 @@
         <v>0</v>
       </c>
       <c r="Q146">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="147" spans="1:18">
@@ -8960,7 +8960,7 @@
         <v>1</v>
       </c>
       <c r="Q147">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="R147">
         <v>9</v>
@@ -9010,7 +9010,7 @@
         <v>0</v>
       </c>
       <c r="Q148">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="149" spans="1:18">
@@ -9057,7 +9057,7 @@
         <v>0</v>
       </c>
       <c r="Q149">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="150" spans="1:18">
@@ -9104,7 +9104,7 @@
         <v>0</v>
       </c>
       <c r="Q150">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="151" spans="1:18">
@@ -9154,7 +9154,7 @@
         <v>1</v>
       </c>
       <c r="Q151">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="R151">
         <v>0</v>
@@ -9207,7 +9207,7 @@
         <v>1</v>
       </c>
       <c r="Q152">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="R152">
         <v>7</v>
@@ -9257,7 +9257,7 @@
         <v>0</v>
       </c>
       <c r="Q153">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="154" spans="1:18">
@@ -9304,7 +9304,7 @@
         <v>0</v>
       </c>
       <c r="Q154">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="155" spans="1:18">
@@ -9354,7 +9354,7 @@
         <v>1</v>
       </c>
       <c r="Q155">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="R155">
         <v>16</v>
@@ -9407,7 +9407,7 @@
         <v>0</v>
       </c>
       <c r="Q156">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="157" spans="1:18">
@@ -9457,7 +9457,7 @@
         <v>1</v>
       </c>
       <c r="Q157">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="R157">
         <v>16</v>
@@ -9507,7 +9507,7 @@
         <v>0</v>
       </c>
       <c r="Q158">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="159" spans="1:18">
@@ -9554,7 +9554,7 @@
         <v>0</v>
       </c>
       <c r="Q159">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="160" spans="1:18">
@@ -9601,7 +9601,7 @@
         <v>0</v>
       </c>
       <c r="Q160">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="161" spans="1:18">
@@ -9648,7 +9648,7 @@
         <v>0</v>
       </c>
       <c r="Q161">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="162" spans="1:18">
@@ -9698,7 +9698,7 @@
         <v>1</v>
       </c>
       <c r="Q162">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="R162">
         <v>15</v>
@@ -9751,7 +9751,7 @@
         <v>1</v>
       </c>
       <c r="Q163">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="R163">
         <v>15</v>
@@ -9804,7 +9804,7 @@
         <v>0</v>
       </c>
       <c r="Q164">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="165" spans="1:18">
@@ -9854,7 +9854,7 @@
         <v>1</v>
       </c>
       <c r="Q165">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="R165">
         <v>18</v>
@@ -9904,7 +9904,7 @@
         <v>0</v>
       </c>
       <c r="Q166">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="167" spans="1:18">
@@ -9948,7 +9948,7 @@
         <v>0</v>
       </c>
       <c r="Q167">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="168" spans="1:18">
@@ -9998,7 +9998,7 @@
         <v>1</v>
       </c>
       <c r="Q168">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="R168">
         <v>18</v>
@@ -10048,7 +10048,7 @@
         <v>0</v>
       </c>
       <c r="Q169">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="170" spans="1:18">
@@ -10095,7 +10095,7 @@
         <v>0</v>
       </c>
       <c r="Q170">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="171" spans="1:18">
@@ -10142,7 +10142,7 @@
         <v>0</v>
       </c>
       <c r="Q171">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="172" spans="1:18">
@@ -10189,7 +10189,7 @@
         <v>0</v>
       </c>
       <c r="Q172">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="173" spans="1:18">
@@ -10236,7 +10236,7 @@
         <v>0</v>
       </c>
       <c r="Q173">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="174" spans="1:18">
@@ -10286,7 +10286,7 @@
         <v>1</v>
       </c>
       <c r="Q174">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="R174">
         <v>15</v>
@@ -10336,7 +10336,7 @@
         <v>0</v>
       </c>
       <c r="Q175">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="176" spans="1:18">
@@ -10383,7 +10383,7 @@
         <v>0</v>
       </c>
       <c r="Q176">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="177" spans="1:18">
@@ -10430,7 +10430,7 @@
         <v>0</v>
       </c>
       <c r="Q177">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="178" spans="1:18">
@@ -10480,7 +10480,7 @@
         <v>0</v>
       </c>
       <c r="Q178">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="179" spans="1:18">
@@ -10530,7 +10530,7 @@
         <v>1</v>
       </c>
       <c r="Q179">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="R179">
         <v>28</v>
@@ -10580,7 +10580,7 @@
         <v>0</v>
       </c>
       <c r="Q180">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="181" spans="1:18">
@@ -10630,7 +10630,7 @@
         <v>1</v>
       </c>
       <c r="Q181">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="R181">
         <v>5</v>
@@ -10683,7 +10683,7 @@
         <v>0</v>
       </c>
       <c r="Q182">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="183" spans="1:18">
@@ -10733,7 +10733,7 @@
         <v>1</v>
       </c>
       <c r="Q183">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="R183">
         <v>17</v>
@@ -10786,7 +10786,7 @@
         <v>0</v>
       </c>
       <c r="Q184">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="185" spans="1:18">
@@ -10836,7 +10836,7 @@
         <v>1</v>
       </c>
       <c r="Q185">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="R185">
         <v>24</v>
@@ -10886,7 +10886,7 @@
         <v>0</v>
       </c>
       <c r="Q186">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="187" spans="1:18">
@@ -10933,7 +10933,7 @@
         <v>0</v>
       </c>
       <c r="Q187">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="188" spans="1:18">
@@ -10980,7 +10980,7 @@
         <v>0</v>
       </c>
       <c r="Q188">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="189" spans="1:18">
@@ -11027,7 +11027,7 @@
         <v>0</v>
       </c>
       <c r="Q189">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="190" spans="1:18">
@@ -11074,7 +11074,7 @@
         <v>0</v>
       </c>
       <c r="Q190">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="191" spans="1:18">
@@ -11121,7 +11121,7 @@
         <v>0</v>
       </c>
       <c r="Q191">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="192" spans="1:18">
@@ -11171,7 +11171,7 @@
         <v>1</v>
       </c>
       <c r="Q192">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="R192">
         <v>28</v>
@@ -11224,7 +11224,7 @@
         <v>0</v>
       </c>
       <c r="Q193">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="194" spans="1:18">
@@ -11274,7 +11274,7 @@
         <v>1</v>
       </c>
       <c r="Q194">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="R194">
         <v>16</v>
@@ -11324,7 +11324,7 @@
         <v>0</v>
       </c>
       <c r="Q195">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="196" spans="1:18">
@@ -11371,7 +11371,7 @@
         <v>0</v>
       </c>
       <c r="Q196">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="197" spans="1:18">
@@ -11418,7 +11418,7 @@
         <v>0</v>
       </c>
       <c r="Q197">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="198" spans="1:18">
@@ -11465,7 +11465,7 @@
         <v>0</v>
       </c>
       <c r="Q198">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="199" spans="1:18">
@@ -11512,7 +11512,7 @@
         <v>0</v>
       </c>
       <c r="Q199">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="200" spans="1:18">
@@ -11559,7 +11559,7 @@
         <v>0</v>
       </c>
       <c r="Q200">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="201" spans="1:18">
@@ -11609,7 +11609,7 @@
         <v>0</v>
       </c>
       <c r="Q201">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="202" spans="1:18">
@@ -11659,7 +11659,7 @@
         <v>1</v>
       </c>
       <c r="Q202">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="R202">
         <v>28</v>
@@ -11712,7 +11712,7 @@
         <v>1</v>
       </c>
       <c r="Q203">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="R203">
         <v>17</v>
@@ -11765,7 +11765,7 @@
         <v>0</v>
       </c>
       <c r="Q204">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="205" spans="1:18">
@@ -11815,7 +11815,7 @@
         <v>1</v>
       </c>
       <c r="Q205">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="R205">
         <v>15</v>
@@ -11865,7 +11865,7 @@
         <v>0</v>
       </c>
       <c r="Q206">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="207" spans="1:18">
@@ -11915,7 +11915,7 @@
         <v>1</v>
       </c>
       <c r="Q207">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="R207">
         <v>21</v>
@@ -11965,7 +11965,7 @@
         <v>0</v>
       </c>
       <c r="Q208">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="209" spans="1:18">
@@ -12012,7 +12012,7 @@
         <v>0</v>
       </c>
       <c r="Q209">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="210" spans="1:18">
@@ -12062,7 +12062,7 @@
         <v>1</v>
       </c>
       <c r="Q210">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="R210">
         <v>38</v>
@@ -12112,7 +12112,7 @@
         <v>0</v>
       </c>
       <c r="Q211">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="212" spans="1:18">
@@ -12156,7 +12156,7 @@
         <v>0</v>
       </c>
       <c r="Q212">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="213" spans="1:18">
@@ -12203,7 +12203,7 @@
         <v>0</v>
       </c>
       <c r="Q213">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="214" spans="1:18">
@@ -12250,7 +12250,7 @@
         <v>0</v>
       </c>
       <c r="Q214">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="215" spans="1:18">
@@ -12297,7 +12297,7 @@
         <v>0</v>
       </c>
       <c r="Q215">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="216" spans="1:18">
@@ -12347,7 +12347,7 @@
         <v>1</v>
       </c>
       <c r="Q216">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="R216">
         <v>10</v>
@@ -12400,7 +12400,7 @@
         <v>0</v>
       </c>
       <c r="Q217">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="218" spans="1:18">
@@ -12450,7 +12450,7 @@
         <v>1</v>
       </c>
       <c r="Q218">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="R218">
         <v>18</v>
@@ -12500,7 +12500,7 @@
         <v>0</v>
       </c>
       <c r="Q219">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="220" spans="1:18">
@@ -12550,7 +12550,7 @@
         <v>1</v>
       </c>
       <c r="Q220">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="R220">
         <v>18</v>
@@ -12600,7 +12600,7 @@
         <v>0</v>
       </c>
       <c r="Q221">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="222" spans="1:18">
@@ -12650,7 +12650,7 @@
         <v>1</v>
       </c>
       <c r="Q222">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="R222">
         <v>23</v>
@@ -12700,7 +12700,7 @@
         <v>0</v>
       </c>
       <c r="Q223">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="224" spans="1:18">
@@ -12750,7 +12750,7 @@
         <v>1</v>
       </c>
       <c r="Q224">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="R224">
         <v>19</v>
@@ -12800,7 +12800,7 @@
         <v>0</v>
       </c>
       <c r="Q225">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="226" spans="1:18">
@@ -12850,7 +12850,7 @@
         <v>1</v>
       </c>
       <c r="Q226">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="R226">
         <v>15</v>
@@ -12900,7 +12900,7 @@
         <v>0</v>
       </c>
       <c r="Q227">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="228" spans="1:18">
@@ -12947,7 +12947,7 @@
         <v>0</v>
       </c>
       <c r="Q228">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="229" spans="1:18">
@@ -12994,7 +12994,7 @@
         <v>0</v>
       </c>
       <c r="Q229">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="230" spans="1:18">
@@ -13041,7 +13041,7 @@
         <v>0</v>
       </c>
       <c r="Q230">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="231" spans="1:18">
@@ -13088,7 +13088,7 @@
         <v>0</v>
       </c>
       <c r="Q231">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="232" spans="1:18">
@@ -13135,7 +13135,7 @@
         <v>0</v>
       </c>
       <c r="Q232">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="233" spans="1:18">
@@ -13182,7 +13182,7 @@
         <v>0</v>
       </c>
       <c r="Q233">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="234" spans="1:18">
@@ -13229,7 +13229,7 @@
         <v>0</v>
       </c>
       <c r="Q234">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="235" spans="1:18">
@@ -13276,7 +13276,7 @@
         <v>0</v>
       </c>
       <c r="Q235">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="236" spans="1:18">
@@ -13326,7 +13326,7 @@
         <v>1</v>
       </c>
       <c r="Q236">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="R236">
         <v>19</v>
@@ -13382,7 +13382,7 @@
         <v>1</v>
       </c>
       <c r="Q237">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="R237">
         <v>5</v>
@@ -13426,10 +13426,10 @@
         <v>1</v>
       </c>
       <c r="P238" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q238">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="239" spans="1:18">
@@ -13476,7 +13476,7 @@
         <v>0</v>
       </c>
       <c r="Q239">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="240" spans="1:18">
@@ -13523,7 +13523,7 @@
         <v>0</v>
       </c>
       <c r="Q240">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="241" spans="1:18">
@@ -13570,7 +13570,7 @@
         <v>0</v>
       </c>
       <c r="Q241">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="242" spans="1:18">
@@ -13617,7 +13617,7 @@
         <v>0</v>
       </c>
       <c r="Q242">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="243" spans="1:18">
@@ -13664,7 +13664,7 @@
         <v>0</v>
       </c>
       <c r="Q243">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="244" spans="1:18">
@@ -13711,7 +13711,7 @@
         <v>0</v>
       </c>
       <c r="Q244">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="245" spans="1:18">
@@ -13758,7 +13758,7 @@
         <v>0</v>
       </c>
       <c r="Q245">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="246" spans="1:18">
@@ -13805,7 +13805,7 @@
         <v>0</v>
       </c>
       <c r="Q246">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="247" spans="1:18">
@@ -13846,10 +13846,10 @@
         <v>1</v>
       </c>
       <c r="P247" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q247">
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
     <row r="248" spans="1:18">
@@ -13899,7 +13899,7 @@
         <v>1</v>
       </c>
       <c r="Q248">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="R248">
         <v>13</v>
@@ -13952,7 +13952,7 @@
         <v>0</v>
       </c>
       <c r="Q249">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="250" spans="1:18">
@@ -14002,7 +14002,7 @@
         <v>1</v>
       </c>
       <c r="Q250">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="R250">
         <v>9</v>
@@ -14052,7 +14052,7 @@
         <v>0</v>
       </c>
       <c r="Q251">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="252" spans="1:18">
@@ -14102,7 +14102,7 @@
         <v>1</v>
       </c>
       <c r="Q252">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="R252">
         <v>17</v>
@@ -14155,7 +14155,7 @@
         <v>0</v>
       </c>
       <c r="Q253">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="254" spans="1:18">
@@ -14205,7 +14205,7 @@
         <v>1</v>
       </c>
       <c r="Q254">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="R254">
         <v>11</v>
@@ -14258,7 +14258,7 @@
         <v>0</v>
       </c>
       <c r="Q255">
-        <v>78</v>
+        <v>73</v>
       </c>
     </row>
     <row r="256" spans="1:18">
@@ -14305,7 +14305,7 @@
         <v>0</v>
       </c>
       <c r="Q256">
-        <v>78</v>
+        <v>73</v>
       </c>
     </row>
     <row r="257" spans="1:18">
@@ -14352,7 +14352,7 @@
         <v>0</v>
       </c>
       <c r="Q257">
-        <v>78</v>
+        <v>73</v>
       </c>
     </row>
     <row r="258" spans="1:18">
@@ -14399,7 +14399,7 @@
         <v>0</v>
       </c>
       <c r="Q258">
-        <v>78</v>
+        <v>73</v>
       </c>
     </row>
     <row r="259" spans="1:18">
@@ -14449,7 +14449,7 @@
         <v>1</v>
       </c>
       <c r="Q259">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="R259">
         <v>6</v>
@@ -14502,7 +14502,7 @@
         <v>0</v>
       </c>
       <c r="Q260">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="261" spans="1:18">
@@ -14552,7 +14552,7 @@
         <v>1</v>
       </c>
       <c r="Q261">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="R261">
         <v>12</v>
@@ -14602,7 +14602,7 @@
         <v>0</v>
       </c>
       <c r="Q262">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="263" spans="1:18">
@@ -14649,7 +14649,7 @@
         <v>0</v>
       </c>
       <c r="Q263">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="264" spans="1:18">
@@ -14699,7 +14699,7 @@
         <v>1</v>
       </c>
       <c r="Q264">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="R264">
         <v>24</v>
@@ -14752,7 +14752,7 @@
         <v>1</v>
       </c>
       <c r="Q265">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="R265">
         <v>12</v>
@@ -14805,7 +14805,7 @@
         <v>1</v>
       </c>
       <c r="Q266">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="R266">
         <v>20</v>
@@ -14855,7 +14855,7 @@
         <v>0</v>
       </c>
       <c r="Q267">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="268" spans="1:18">
@@ -14905,7 +14905,7 @@
         <v>1</v>
       </c>
       <c r="Q268">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="R268">
         <v>9</v>
@@ -14958,7 +14958,7 @@
         <v>1</v>
       </c>
       <c r="Q269">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="R269">
         <v>23</v>
@@ -15011,7 +15011,7 @@
         <v>0</v>
       </c>
       <c r="Q270">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="271" spans="1:18">
@@ -15061,7 +15061,7 @@
         <v>1</v>
       </c>
       <c r="Q271">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="R271">
         <v>18</v>
@@ -15111,7 +15111,7 @@
         <v>0</v>
       </c>
       <c r="Q272">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="273" spans="1:18">
@@ -15161,7 +15161,7 @@
         <v>1</v>
       </c>
       <c r="Q273">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="R273">
         <v>20</v>
@@ -15211,7 +15211,7 @@
         <v>0</v>
       </c>
       <c r="Q274">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="275" spans="1:18">
@@ -15261,7 +15261,7 @@
         <v>1</v>
       </c>
       <c r="Q275">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="R275">
         <v>23</v>
@@ -15311,7 +15311,7 @@
         <v>0</v>
       </c>
       <c r="Q276">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="277" spans="1:18">
@@ -15361,7 +15361,7 @@
         <v>1</v>
       </c>
       <c r="Q277">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="R277">
         <v>20</v>
@@ -15414,7 +15414,7 @@
         <v>1</v>
       </c>
       <c r="Q278">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="R278">
         <v>15</v>
@@ -15467,7 +15467,7 @@
         <v>1</v>
       </c>
       <c r="Q279">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="R279">
         <v>18</v>
@@ -15517,7 +15517,7 @@
         <v>0</v>
       </c>
       <c r="Q280">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="281" spans="1:18">
@@ -15567,7 +15567,7 @@
         <v>0</v>
       </c>
       <c r="Q281">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="282" spans="1:18">
@@ -15617,7 +15617,7 @@
         <v>1</v>
       </c>
       <c r="Q282">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="R282">
         <v>10</v>
@@ -15667,7 +15667,7 @@
         <v>0</v>
       </c>
       <c r="Q283">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="284" spans="1:18">
@@ -15711,7 +15711,7 @@
         <v>0</v>
       </c>
       <c r="Q284">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="285" spans="1:18">
@@ -15761,7 +15761,7 @@
         <v>1</v>
       </c>
       <c r="Q285">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="R285">
         <v>20</v>
@@ -15814,7 +15814,7 @@
         <v>0</v>
       </c>
       <c r="Q286">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="287" spans="1:18">
@@ -15864,7 +15864,7 @@
         <v>1</v>
       </c>
       <c r="Q287">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="R287">
         <v>10</v>
@@ -15917,7 +15917,7 @@
         <v>1</v>
       </c>
       <c r="Q288">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="R288">
         <v>20</v>
@@ -15967,7 +15967,7 @@
         <v>0</v>
       </c>
       <c r="Q289">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="290" spans="1:18">
@@ -16014,7 +16014,7 @@
         <v>0</v>
       </c>
       <c r="Q290">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="291" spans="1:18">
@@ -16061,7 +16061,7 @@
         <v>0</v>
       </c>
       <c r="Q291">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="292" spans="1:18">
@@ -16108,7 +16108,7 @@
         <v>0</v>
       </c>
       <c r="Q292">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="293" spans="1:18">
@@ -16158,7 +16158,7 @@
         <v>1</v>
       </c>
       <c r="Q293">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="R293">
         <v>1</v>
@@ -16211,7 +16211,7 @@
         <v>1</v>
       </c>
       <c r="Q294">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="R294">
         <v>3</v>
@@ -16264,7 +16264,7 @@
         <v>0</v>
       </c>
       <c r="Q295">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="296" spans="1:18">
@@ -16311,7 +16311,7 @@
         <v>0</v>
       </c>
       <c r="Q296">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="297" spans="1:18">
@@ -16361,7 +16361,7 @@
         <v>0</v>
       </c>
       <c r="Q297">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="298" spans="1:18">
@@ -16411,7 +16411,7 @@
         <v>1</v>
       </c>
       <c r="Q298">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="R298">
         <v>26</v>
@@ -16461,7 +16461,7 @@
         <v>0</v>
       </c>
       <c r="Q299">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="300" spans="1:18">
@@ -16508,7 +16508,7 @@
         <v>0</v>
       </c>
       <c r="Q300">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="301" spans="1:18">
@@ -16558,7 +16558,7 @@
         <v>1</v>
       </c>
       <c r="Q301">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="R301">
         <v>20</v>
@@ -16608,7 +16608,7 @@
         <v>0</v>
       </c>
       <c r="Q302">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="303" spans="1:18">
@@ -16658,7 +16658,7 @@
         <v>1</v>
       </c>
       <c r="Q303">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="R303">
         <v>22</v>
@@ -16711,7 +16711,7 @@
         <v>0</v>
       </c>
       <c r="Q304">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="305" spans="1:18">
@@ -16758,7 +16758,7 @@
         <v>0</v>
       </c>
       <c r="Q305">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="306" spans="1:18">
@@ -16808,7 +16808,7 @@
         <v>0</v>
       </c>
       <c r="Q306">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="307" spans="1:18">
@@ -16855,7 +16855,7 @@
         <v>0</v>
       </c>
       <c r="Q307">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="308" spans="1:18">
@@ -16905,7 +16905,7 @@
         <v>0</v>
       </c>
       <c r="Q308">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="309" spans="1:18">
@@ -16952,7 +16952,7 @@
         <v>0</v>
       </c>
       <c r="Q309">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="310" spans="1:18">
@@ -16999,7 +16999,7 @@
         <v>0</v>
       </c>
       <c r="Q310">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="311" spans="1:18">
@@ -17046,7 +17046,7 @@
         <v>0</v>
       </c>
       <c r="Q311">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="312" spans="1:18">
@@ -17093,7 +17093,7 @@
         <v>0</v>
       </c>
       <c r="Q312">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="313" spans="1:18">
@@ -17140,7 +17140,7 @@
         <v>0</v>
       </c>
       <c r="Q313">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="314" spans="1:18">
@@ -17190,7 +17190,7 @@
         <v>1</v>
       </c>
       <c r="Q314">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="R314">
         <v>15</v>
@@ -17240,7 +17240,7 @@
         <v>0</v>
       </c>
       <c r="Q315">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="316" spans="1:18">
@@ -17287,7 +17287,7 @@
         <v>0</v>
       </c>
       <c r="Q316">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="317" spans="1:18">
@@ -17334,7 +17334,7 @@
         <v>0</v>
       </c>
       <c r="Q317">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="318" spans="1:18">
@@ -17381,7 +17381,7 @@
         <v>0</v>
       </c>
       <c r="Q318">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="319" spans="1:18">
@@ -17431,7 +17431,7 @@
         <v>1</v>
       </c>
       <c r="Q319">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="R319">
         <v>27</v>
@@ -17481,7 +17481,7 @@
         <v>0</v>
       </c>
       <c r="Q320">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="321" spans="1:18">
@@ -17531,7 +17531,7 @@
         <v>0</v>
       </c>
       <c r="Q321">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="322" spans="1:18">
@@ -17581,7 +17581,7 @@
         <v>1</v>
       </c>
       <c r="Q322">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="R322">
         <v>22</v>
@@ -17631,7 +17631,7 @@
         <v>0</v>
       </c>
       <c r="Q323">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="324" spans="1:18">
@@ -17681,7 +17681,7 @@
         <v>1</v>
       </c>
       <c r="Q324">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="R324">
         <v>20</v>
@@ -17734,7 +17734,7 @@
         <v>0</v>
       </c>
       <c r="Q325">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="326" spans="1:18">
@@ -17781,7 +17781,7 @@
         <v>0</v>
       </c>
       <c r="Q326">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="327" spans="1:18">
@@ -17828,7 +17828,7 @@
         <v>0</v>
       </c>
       <c r="Q327">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="328" spans="1:18">
@@ -17875,7 +17875,7 @@
         <v>0</v>
       </c>
       <c r="Q328">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="329" spans="1:18">
@@ -17922,7 +17922,7 @@
         <v>0</v>
       </c>
       <c r="Q329">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="330" spans="1:18">
@@ -17969,7 +17969,7 @@
         <v>0</v>
       </c>
       <c r="Q330">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="331" spans="1:18">
@@ -18016,7 +18016,7 @@
         <v>0</v>
       </c>
       <c r="Q331">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="332" spans="1:18">
@@ -18063,7 +18063,7 @@
         <v>0</v>
       </c>
       <c r="Q332">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="333" spans="1:18">
@@ -18113,7 +18113,7 @@
         <v>1</v>
       </c>
       <c r="Q333">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="R333">
         <v>23</v>
@@ -18166,7 +18166,7 @@
         <v>1</v>
       </c>
       <c r="Q334">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="R334">
         <v>18</v>
@@ -18219,7 +18219,7 @@
         <v>1</v>
       </c>
       <c r="Q335">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="R335">
         <v>23</v>
@@ -18269,7 +18269,7 @@
         <v>0</v>
       </c>
       <c r="Q336">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="337" spans="1:18">
@@ -18316,7 +18316,7 @@
         <v>0</v>
       </c>
       <c r="Q337">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="338" spans="1:18">
@@ -18366,7 +18366,7 @@
         <v>1</v>
       </c>
       <c r="Q338">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="R338">
         <v>0</v>
@@ -18419,7 +18419,7 @@
         <v>1</v>
       </c>
       <c r="Q339">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="R339">
         <v>20</v>
@@ -18472,7 +18472,7 @@
         <v>0</v>
       </c>
       <c r="Q340">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="341" spans="1:18">
@@ -18522,7 +18522,7 @@
         <v>1</v>
       </c>
       <c r="Q341">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="R341">
         <v>18</v>
@@ -18575,7 +18575,7 @@
         <v>0</v>
       </c>
       <c r="Q342">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="343" spans="1:18">
@@ -18625,7 +18625,7 @@
         <v>1</v>
       </c>
       <c r="Q343">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="R343">
         <v>5</v>
@@ -18669,10 +18669,10 @@
         <v>1</v>
       </c>
       <c r="P344" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q344">
-        <v>112</v>
+        <v>106</v>
       </c>
     </row>
     <row r="345" spans="1:18">
@@ -18713,10 +18713,10 @@
         <v>1</v>
       </c>
       <c r="P345" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q345">
-        <v>113</v>
+        <v>106</v>
       </c>
     </row>
     <row r="346" spans="1:18">
@@ -18766,7 +18766,7 @@
         <v>1</v>
       </c>
       <c r="Q346">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="R346">
         <v>11</v>
@@ -18816,7 +18816,7 @@
         <v>0</v>
       </c>
       <c r="Q347">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="348" spans="1:18">
@@ -18866,7 +18866,7 @@
         <v>0</v>
       </c>
       <c r="Q348">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="349" spans="1:18">
@@ -18913,7 +18913,7 @@
         <v>0</v>
       </c>
       <c r="Q349">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="350" spans="1:18">
@@ -18960,7 +18960,7 @@
         <v>0</v>
       </c>
       <c r="Q350">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="351" spans="1:18">
@@ -19007,7 +19007,7 @@
         <v>0</v>
       </c>
       <c r="Q351">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="352" spans="1:18">
@@ -19054,7 +19054,7 @@
         <v>0</v>
       </c>
       <c r="Q352">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="353" spans="1:18">
@@ -19104,7 +19104,7 @@
         <v>0</v>
       </c>
       <c r="Q353">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="354" spans="1:18">
@@ -19154,7 +19154,7 @@
         <v>1</v>
       </c>
       <c r="Q354">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="R354">
         <v>68</v>
@@ -19204,7 +19204,7 @@
         <v>0</v>
       </c>
       <c r="Q355">
-        <v>115</v>
+        <v>108</v>
       </c>
     </row>
     <row r="356" spans="1:18">
@@ -19257,7 +19257,7 @@
         <v>1</v>
       </c>
       <c r="Q356">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="R356">
         <v>7</v>
@@ -19307,7 +19307,7 @@
         <v>0</v>
       </c>
       <c r="Q357">
-        <v>116</v>
+        <v>109</v>
       </c>
     </row>
     <row r="358" spans="1:18">
@@ -19354,7 +19354,7 @@
         <v>0</v>
       </c>
       <c r="Q358">
-        <v>116</v>
+        <v>109</v>
       </c>
     </row>
     <row r="359" spans="1:18">
@@ -19401,7 +19401,7 @@
         <v>0</v>
       </c>
       <c r="Q359">
-        <v>116</v>
+        <v>109</v>
       </c>
     </row>
     <row r="360" spans="1:18">
@@ -19445,7 +19445,7 @@
         <v>0</v>
       </c>
       <c r="Q360">
-        <v>116</v>
+        <v>109</v>
       </c>
     </row>
     <row r="361" spans="1:18">
@@ -19495,7 +19495,7 @@
         <v>1</v>
       </c>
       <c r="Q361">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="R361">
         <v>10</v>
@@ -19548,7 +19548,7 @@
         <v>1</v>
       </c>
       <c r="Q362">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="R362">
         <v>10</v>
@@ -19598,7 +19598,7 @@
         <v>0</v>
       </c>
       <c r="Q363">
-        <v>118</v>
+        <v>111</v>
       </c>
     </row>
     <row r="364" spans="1:18">
@@ -19648,7 +19648,7 @@
         <v>1</v>
       </c>
       <c r="Q364">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="R364">
         <v>4</v>
@@ -19698,7 +19698,7 @@
         <v>0</v>
       </c>
       <c r="Q365">
-        <v>119</v>
+        <v>112</v>
       </c>
     </row>
     <row r="366" spans="1:18">
@@ -19745,7 +19745,7 @@
         <v>0</v>
       </c>
       <c r="Q366">
-        <v>119</v>
+        <v>112</v>
       </c>
     </row>
     <row r="367" spans="1:18">
@@ -19792,7 +19792,7 @@
         <v>0</v>
       </c>
       <c r="Q367">
-        <v>119</v>
+        <v>112</v>
       </c>
     </row>
     <row r="368" spans="1:18">
@@ -19839,7 +19839,7 @@
         <v>0</v>
       </c>
       <c r="Q368">
-        <v>119</v>
+        <v>112</v>
       </c>
     </row>
     <row r="369" spans="1:18">
@@ -19889,7 +19889,7 @@
         <v>1</v>
       </c>
       <c r="Q369">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="R369">
         <v>28</v>
@@ -19939,7 +19939,7 @@
         <v>0</v>
       </c>
       <c r="Q370">
-        <v>120</v>
+        <v>113</v>
       </c>
     </row>
     <row r="371" spans="1:18">
@@ -19989,7 +19989,7 @@
         <v>1</v>
       </c>
       <c r="Q371">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="R371">
         <v>5</v>
@@ -20039,7 +20039,7 @@
         <v>0</v>
       </c>
       <c r="Q372">
-        <v>121</v>
+        <v>114</v>
       </c>
     </row>
     <row r="373" spans="1:18">
@@ -20083,7 +20083,7 @@
         <v>0</v>
       </c>
       <c r="Q373">
-        <v>121</v>
+        <v>114</v>
       </c>
     </row>
     <row r="374" spans="1:18">
@@ -20130,7 +20130,7 @@
         <v>0</v>
       </c>
       <c r="Q374">
-        <v>121</v>
+        <v>114</v>
       </c>
     </row>
     <row r="375" spans="1:18">
@@ -20177,7 +20177,7 @@
         <v>0</v>
       </c>
       <c r="Q375">
-        <v>121</v>
+        <v>114</v>
       </c>
     </row>
     <row r="376" spans="1:18">
@@ -20227,7 +20227,7 @@
         <v>1</v>
       </c>
       <c r="Q376">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="R376">
         <v>11</v>
@@ -20277,7 +20277,7 @@
         <v>0</v>
       </c>
       <c r="Q377">
-        <v>122</v>
+        <v>115</v>
       </c>
     </row>
     <row r="378" spans="1:18">
@@ -20324,7 +20324,7 @@
         <v>0</v>
       </c>
       <c r="Q378">
-        <v>122</v>
+        <v>115</v>
       </c>
     </row>
     <row r="379" spans="1:18">
@@ -20374,7 +20374,7 @@
         <v>0</v>
       </c>
       <c r="Q379">
-        <v>122</v>
+        <v>115</v>
       </c>
     </row>
     <row r="380" spans="1:18">
@@ -20421,7 +20421,7 @@
         <v>0</v>
       </c>
       <c r="Q380">
-        <v>122</v>
+        <v>115</v>
       </c>
     </row>
     <row r="381" spans="1:18">
@@ -20471,7 +20471,7 @@
         <v>0</v>
       </c>
       <c r="Q381">
-        <v>122</v>
+        <v>115</v>
       </c>
     </row>
     <row r="382" spans="1:18">
@@ -20521,7 +20521,7 @@
         <v>1</v>
       </c>
       <c r="Q382">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="R382">
         <v>37</v>
@@ -20574,7 +20574,7 @@
         <v>0</v>
       </c>
       <c r="Q383">
-        <v>123</v>
+        <v>116</v>
       </c>
     </row>
     <row r="384" spans="1:18">
@@ -20624,7 +20624,7 @@
         <v>1</v>
       </c>
       <c r="Q384">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="R384">
         <v>8</v>
@@ -20674,7 +20674,7 @@
         <v>0</v>
       </c>
       <c r="Q385">
-        <v>124</v>
+        <v>117</v>
       </c>
     </row>
     <row r="386" spans="1:18">
@@ -20721,7 +20721,7 @@
         <v>0</v>
       </c>
       <c r="Q386">
-        <v>124</v>
+        <v>117</v>
       </c>
     </row>
     <row r="387" spans="1:18">
@@ -20774,7 +20774,7 @@
         <v>1</v>
       </c>
       <c r="Q387">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="R387">
         <v>10</v>
@@ -20824,7 +20824,7 @@
         <v>0</v>
       </c>
       <c r="Q388">
-        <v>125</v>
+        <v>118</v>
       </c>
     </row>
     <row r="389" spans="1:18">
@@ -20871,7 +20871,7 @@
         <v>0</v>
       </c>
       <c r="Q389">
-        <v>125</v>
+        <v>118</v>
       </c>
     </row>
     <row r="390" spans="1:18">
@@ -20918,7 +20918,7 @@
         <v>0</v>
       </c>
       <c r="Q390">
-        <v>125</v>
+        <v>118</v>
       </c>
     </row>
     <row r="391" spans="1:18">
@@ -20968,7 +20968,7 @@
         <v>1</v>
       </c>
       <c r="Q391">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="R391">
         <v>19</v>
@@ -21021,7 +21021,7 @@
         <v>0</v>
       </c>
       <c r="Q392">
-        <v>126</v>
+        <v>119</v>
       </c>
     </row>
     <row r="393" spans="1:18">
@@ -21068,7 +21068,7 @@
         <v>0</v>
       </c>
       <c r="Q393">
-        <v>126</v>
+        <v>119</v>
       </c>
     </row>
     <row r="394" spans="1:18">
@@ -21118,7 +21118,7 @@
         <v>0</v>
       </c>
       <c r="Q394">
-        <v>126</v>
+        <v>119</v>
       </c>
     </row>
     <row r="395" spans="1:18">
@@ -21168,7 +21168,7 @@
         <v>1</v>
       </c>
       <c r="Q395">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="R395">
         <v>26</v>
@@ -21221,7 +21221,7 @@
         <v>1</v>
       </c>
       <c r="Q396">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="R396">
         <v>17</v>
@@ -21274,7 +21274,7 @@
         <v>0</v>
       </c>
       <c r="Q397">
-        <v>128</v>
+        <v>121</v>
       </c>
     </row>
     <row r="398" spans="1:18">
@@ -21324,7 +21324,7 @@
         <v>1</v>
       </c>
       <c r="Q398">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="R398">
         <v>19</v>
@@ -21374,7 +21374,7 @@
         <v>0</v>
       </c>
       <c r="Q399">
-        <v>129</v>
+        <v>122</v>
       </c>
     </row>
     <row r="400" spans="1:18">
@@ -21424,7 +21424,7 @@
         <v>1</v>
       </c>
       <c r="Q400">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="R400">
         <v>22</v>
@@ -21477,7 +21477,7 @@
         <v>1</v>
       </c>
       <c r="Q401">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="R401">
         <v>24</v>
@@ -21527,7 +21527,7 @@
         <v>0</v>
       </c>
       <c r="Q402">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
     <row r="403" spans="1:18">
@@ -21574,7 +21574,7 @@
         <v>0</v>
       </c>
       <c r="Q403">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
     <row r="404" spans="1:18">
@@ -21621,7 +21621,7 @@
         <v>0</v>
       </c>
       <c r="Q404">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
     <row r="405" spans="1:18">
@@ -21668,7 +21668,7 @@
         <v>0</v>
       </c>
       <c r="Q405">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
     <row r="406" spans="1:18">
@@ -21715,7 +21715,7 @@
         <v>0</v>
       </c>
       <c r="Q406">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
     <row r="407" spans="1:18">
@@ -21762,7 +21762,7 @@
         <v>0</v>
       </c>
       <c r="Q407">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
     <row r="408" spans="1:18">
@@ -21809,7 +21809,7 @@
         <v>0</v>
       </c>
       <c r="Q408">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
     <row r="409" spans="1:18">
@@ -21856,7 +21856,7 @@
         <v>0</v>
       </c>
       <c r="Q409">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
     <row r="410" spans="1:18">
@@ -21903,7 +21903,7 @@
         <v>0</v>
       </c>
       <c r="Q410">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
     <row r="411" spans="1:18">
@@ -21950,7 +21950,7 @@
         <v>0</v>
       </c>
       <c r="Q411">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
     <row r="412" spans="1:18">
@@ -21997,7 +21997,7 @@
         <v>0</v>
       </c>
       <c r="Q412">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
     <row r="413" spans="1:18">
@@ -22047,7 +22047,7 @@
         <v>1</v>
       </c>
       <c r="Q413">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="R413">
         <v>25</v>
@@ -22100,7 +22100,7 @@
         <v>1</v>
       </c>
       <c r="Q414">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="R414">
         <v>14</v>
@@ -22153,7 +22153,7 @@
         <v>0</v>
       </c>
       <c r="Q415">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="416" spans="1:18">
@@ -22200,7 +22200,7 @@
         <v>0</v>
       </c>
       <c r="Q416">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="417" spans="1:18">
@@ -22247,7 +22247,7 @@
         <v>0</v>
       </c>
       <c r="Q417">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="418" spans="1:18">
@@ -22294,7 +22294,7 @@
         <v>0</v>
       </c>
       <c r="Q418">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="419" spans="1:18">
@@ -22344,7 +22344,7 @@
         <v>1</v>
       </c>
       <c r="Q419">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="R419">
         <v>7</v>
@@ -22394,7 +22394,7 @@
         <v>0</v>
       </c>
       <c r="Q420">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="421" spans="1:18">
@@ -22444,7 +22444,7 @@
         <v>1</v>
       </c>
       <c r="Q421">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="R421">
         <v>18</v>
@@ -22497,7 +22497,7 @@
         <v>0</v>
       </c>
       <c r="Q422">
-        <v>135</v>
+        <v>128</v>
       </c>
     </row>
     <row r="423" spans="1:18">
@@ -22547,7 +22547,7 @@
         <v>1</v>
       </c>
       <c r="Q423">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="R423">
         <v>9</v>
@@ -22597,7 +22597,7 @@
         <v>0</v>
       </c>
       <c r="Q424">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="425" spans="1:18">
@@ -22644,7 +22644,7 @@
         <v>0</v>
       </c>
       <c r="Q425">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="426" spans="1:18">
@@ -22691,7 +22691,7 @@
         <v>0</v>
       </c>
       <c r="Q426">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="427" spans="1:18">
@@ -22738,7 +22738,7 @@
         <v>0</v>
       </c>
       <c r="Q427">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="428" spans="1:18">
@@ -22785,7 +22785,7 @@
         <v>0</v>
       </c>
       <c r="Q428">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="429" spans="1:18">
@@ -22832,7 +22832,7 @@
         <v>0</v>
       </c>
       <c r="Q429">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="430" spans="1:18">
@@ -22879,7 +22879,7 @@
         <v>0</v>
       </c>
       <c r="Q430">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="431" spans="1:18">
@@ -22929,7 +22929,7 @@
         <v>1</v>
       </c>
       <c r="Q431">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="R431">
         <v>13</v>
@@ -22982,7 +22982,7 @@
         <v>0</v>
       </c>
       <c r="Q432">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="433" spans="1:18">
@@ -23032,7 +23032,7 @@
         <v>1</v>
       </c>
       <c r="Q433">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="R433">
         <v>16</v>
@@ -23082,7 +23082,7 @@
         <v>0</v>
       </c>
       <c r="Q434">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="435" spans="1:18">
@@ -23132,7 +23132,7 @@
         <v>0</v>
       </c>
       <c r="Q435">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="436" spans="1:18">
@@ -23182,7 +23182,7 @@
         <v>1</v>
       </c>
       <c r="Q436">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="R436">
         <v>6</v>
@@ -23232,7 +23232,7 @@
         <v>0</v>
       </c>
       <c r="Q437">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="438" spans="1:18">
@@ -23279,7 +23279,7 @@
         <v>0</v>
       </c>
       <c r="Q438">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="439" spans="1:18">
@@ -23326,7 +23326,7 @@
         <v>0</v>
       </c>
       <c r="Q439">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="440" spans="1:18">
@@ -23376,7 +23376,7 @@
         <v>1</v>
       </c>
       <c r="Q440">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="R440">
         <v>0</v>
@@ -23429,7 +23429,7 @@
         <v>1</v>
       </c>
       <c r="Q441">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="R441">
         <v>16</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Q442">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="443" spans="1:18">
@@ -23532,7 +23532,7 @@
         <v>1</v>
       </c>
       <c r="Q443">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="R443">
         <v>23</v>
@@ -23585,7 +23585,7 @@
         <v>0</v>
       </c>
       <c r="Q444">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="445" spans="1:18">
@@ -23635,7 +23635,7 @@
         <v>1</v>
       </c>
       <c r="Q445">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="R445">
         <v>15</v>
@@ -23688,7 +23688,7 @@
         <v>0</v>
       </c>
       <c r="Q446">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="447" spans="1:18">
@@ -23738,7 +23738,7 @@
         <v>1</v>
       </c>
       <c r="Q447">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="R447">
         <v>23</v>
@@ -23785,7 +23785,7 @@
         <v>0</v>
       </c>
       <c r="Q448">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="449" spans="1:18">
@@ -23832,7 +23832,7 @@
         <v>0</v>
       </c>
       <c r="Q449">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="450" spans="1:18">
@@ -23879,7 +23879,7 @@
         <v>0</v>
       </c>
       <c r="Q450">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="451" spans="1:18">
@@ -23929,7 +23929,7 @@
         <v>1</v>
       </c>
       <c r="Q451">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="R451">
         <v>14</v>
@@ -23982,7 +23982,7 @@
         <v>1</v>
       </c>
       <c r="Q452">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="R452">
         <v>33</v>
@@ -24032,7 +24032,7 @@
         <v>0</v>
       </c>
       <c r="Q453">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="454" spans="1:18">
@@ -24076,7 +24076,7 @@
         <v>0</v>
       </c>
       <c r="Q454">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="455" spans="1:18">
@@ -24126,7 +24126,7 @@
         <v>1</v>
       </c>
       <c r="Q455">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="R455">
         <v>5</v>
@@ -24179,7 +24179,7 @@
         <v>0</v>
       </c>
       <c r="Q456">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="457" spans="1:18">
@@ -24226,7 +24226,7 @@
         <v>0</v>
       </c>
       <c r="Q457">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="458" spans="1:18">
@@ -24273,7 +24273,7 @@
         <v>0</v>
       </c>
       <c r="Q458">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="459" spans="1:18">
@@ -24320,7 +24320,7 @@
         <v>0</v>
       </c>
       <c r="Q459">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="460" spans="1:18">
@@ -24370,7 +24370,7 @@
         <v>1</v>
       </c>
       <c r="Q460">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="R460">
         <v>7</v>
@@ -24423,7 +24423,7 @@
         <v>1</v>
       </c>
       <c r="Q461">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="R461">
         <v>10</v>
@@ -24473,7 +24473,7 @@
         <v>0</v>
       </c>
       <c r="Q462">
-        <v>149</v>
+        <v>142</v>
       </c>
     </row>
     <row r="463" spans="1:18">
@@ -24520,7 +24520,7 @@
         <v>0</v>
       </c>
       <c r="Q463">
-        <v>149</v>
+        <v>142</v>
       </c>
     </row>
     <row r="464" spans="1:18">
@@ -24567,7 +24567,7 @@
         <v>0</v>
       </c>
       <c r="Q464">
-        <v>149</v>
+        <v>142</v>
       </c>
     </row>
     <row r="465" spans="1:18">
@@ -24614,7 +24614,7 @@
         <v>0</v>
       </c>
       <c r="Q465">
-        <v>149</v>
+        <v>142</v>
       </c>
     </row>
     <row r="466" spans="1:18">
@@ -24664,7 +24664,7 @@
         <v>1</v>
       </c>
       <c r="Q466">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="R466">
         <v>1</v>
@@ -24714,7 +24714,7 @@
         <v>0</v>
       </c>
       <c r="Q467">
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
     <row r="468" spans="1:18">
@@ -24761,7 +24761,7 @@
         <v>0</v>
       </c>
       <c r="Q468">
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
     <row r="469" spans="1:18">
@@ -24811,7 +24811,7 @@
         <v>1</v>
       </c>
       <c r="Q469">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="R469">
         <v>2</v>
@@ -24861,7 +24861,7 @@
         <v>0</v>
       </c>
       <c r="Q470">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="471" spans="1:18">
@@ -24908,7 +24908,7 @@
         <v>0</v>
       </c>
       <c r="Q471">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="472" spans="1:18">
@@ -24955,7 +24955,7 @@
         <v>0</v>
       </c>
       <c r="Q472">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="473" spans="1:18">
@@ -25002,7 +25002,7 @@
         <v>0</v>
       </c>
       <c r="Q473">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="474" spans="1:18">
@@ -25052,7 +25052,7 @@
         <v>1</v>
       </c>
       <c r="Q474">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="R474">
         <v>6</v>
@@ -25105,7 +25105,7 @@
         <v>1</v>
       </c>
       <c r="Q475">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="R475">
         <v>0</v>
@@ -25149,10 +25149,10 @@
         <v>1</v>
       </c>
       <c r="P476" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q476">
-        <v>154</v>
+        <v>146</v>
       </c>
     </row>
     <row r="477" spans="1:18">
@@ -25193,7 +25193,7 @@
         <v>0</v>
       </c>
       <c r="Q477">
-        <v>154</v>
+        <v>146</v>
       </c>
     </row>
   </sheetData>
